--- a/Git Hub エビデンス・リファレンス.xlsx
+++ b/Git Hub エビデンス・リファレンス.xlsx
@@ -5,31 +5,33 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\i-uneno\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\GitHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27585" windowHeight="11565" tabRatio="889" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27585" windowHeight="11565" tabRatio="889" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="プッシュ手順 (2)" sheetId="6" r:id="rId1"/>
     <sheet name="プッシュ手順" sheetId="1" r:id="rId2"/>
-    <sheet name="リモートアドレス修正" sheetId="7" r:id="rId3"/>
-    <sheet name="pull（ローカル更新）" sheetId="8" r:id="rId4"/>
-    <sheet name="管理除外手順" sheetId="3" r:id="rId5"/>
-    <sheet name="ファイル追加手順" sheetId="5" r:id="rId6"/>
-    <sheet name="リモートブランチとの差異" sheetId="9" r:id="rId7"/>
-    <sheet name="config system" sheetId="2" r:id="rId8"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId9"/>
+    <sheet name="pushのエラー翻訳" sheetId="10" r:id="rId3"/>
+    <sheet name="リモートアドレス修正" sheetId="7" r:id="rId4"/>
+    <sheet name="pull（ローカル更新）" sheetId="8" r:id="rId5"/>
+    <sheet name="管理除外手順" sheetId="3" r:id="rId6"/>
+    <sheet name="ファイル追加手順" sheetId="5" r:id="rId7"/>
+    <sheet name="リモートブランチとの差異" sheetId="9" r:id="rId8"/>
+    <sheet name="config system" sheetId="2" r:id="rId9"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'pull（ローカル更新）'!$A$1:$C$8</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">ファイル追加手順!$A$1:$C$642</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'pull（ローカル更新）'!$A$1:$C$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">pushのエラー翻訳!$A$1:$C$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">ファイル追加手順!$A$1:$C$642</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">プッシュ手順!$A$1:$C$614</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'プッシュ手順 (2)'!$A$1:$C$642</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">リモートアドレス修正!$A$1:$C$100</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">リモートブランチとの差異!$A$1:$C$644</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">管理除外手順!$A$1:$C$642</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">リモートアドレス修正!$A$1:$C$100</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">リモートブランチとの差異!$A$1:$C$644</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">管理除外手順!$A$1:$C$642</definedName>
   </definedNames>
   <calcPr calcId="162913" refMode="R1C1"/>
   <extLst>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="674">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1307" uniqueCount="687">
   <si>
     <t>i-uneno@UPK-UNENO MINGW64 ~</t>
   </si>
@@ -2408,6 +2410,60 @@
   </si>
   <si>
     <t>「origin main」のmainはローカルのブランチ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ! [rejected]        master -&gt; master (non-fast-forward)</t>
+  </si>
+  <si>
+    <t>rejected:きょひされました</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>error: failed to push some refs to 'https://github.com/indy-papa/MENTA_Task.git'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「https://github.com/indy-papa/MENTA_Task.git」への参照のプッシュに失敗しました</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hint: Updates were rejected because the tip of your current branch is behind</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現在のブランチのヒントが遅れているため、更新は拒否されました</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hint: its remote counterpart. Integrate the remote changes (e.g.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そのリモート対応。 リモートの変更を統合します (例:</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hint: 'git pull ...') before pushing again.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>git pull ...') 再度プッシュする前に。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hint: See the 'Note about fast-forwards' in 'git push --help' for details.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳細については、「git push --help」の「早送りに関する注意」を参照してください。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pushエラー翻訳</t>
+    <rPh sb="7" eb="9">
+      <t>ホンヤク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2647,7 +2703,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2707,6 +2763,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2768,8 +2827,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3579,7 +3641,7 @@
       <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62" s="21" t="s">
+      <c r="B62" s="22" t="s">
         <v>479</v>
       </c>
       <c r="C62" s="2" t="s">
@@ -3590,7 +3652,7 @@
       <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63" s="21"/>
+      <c r="B63" s="22"/>
       <c r="C63" t="s">
         <v>81</v>
       </c>
@@ -3612,7 +3674,7 @@
       <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66" s="22" t="s">
+      <c r="B66" s="23" t="s">
         <v>480</v>
       </c>
       <c r="C66" s="2" t="s">
@@ -3623,7 +3685,7 @@
       <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67" s="22"/>
+      <c r="B67" s="23"/>
     </row>
     <row r="68" spans="1:3" hidden="1">
       <c r="A68">
@@ -3724,7 +3786,7 @@
       <c r="A81">
         <v>80</v>
       </c>
-      <c r="B81" s="22" t="s">
+      <c r="B81" s="23" t="s">
         <v>481</v>
       </c>
       <c r="C81" s="2" t="s">
@@ -3735,13 +3797,13 @@
       <c r="A82">
         <v>81</v>
       </c>
-      <c r="B82" s="22"/>
+      <c r="B82" s="23"/>
     </row>
     <row r="83" spans="1:3" hidden="1">
       <c r="A83">
         <v>82</v>
       </c>
-      <c r="B83" s="23" t="s">
+      <c r="B83" s="24" t="s">
         <v>482</v>
       </c>
       <c r="C83" s="1" t="s">
@@ -3752,7 +3814,7 @@
       <c r="A84">
         <v>83</v>
       </c>
-      <c r="B84" s="23"/>
+      <c r="B84" s="24"/>
       <c r="C84" s="2" t="s">
         <v>84</v>
       </c>
@@ -3761,7 +3823,7 @@
       <c r="A85">
         <v>84</v>
       </c>
-      <c r="B85" s="23"/>
+      <c r="B85" s="24"/>
       <c r="C85" t="s">
         <v>85</v>
       </c>
@@ -3770,7 +3832,7 @@
       <c r="A86">
         <v>85</v>
       </c>
-      <c r="B86" s="23"/>
+      <c r="B86" s="24"/>
       <c r="C86" t="s">
         <v>86</v>
       </c>
@@ -3779,7 +3841,7 @@
       <c r="A87">
         <v>86</v>
       </c>
-      <c r="B87" s="23"/>
+      <c r="B87" s="24"/>
     </row>
     <row r="88" spans="1:3" hidden="1">
       <c r="A88">
@@ -3859,7 +3921,7 @@
       <c r="A98">
         <v>97</v>
       </c>
-      <c r="B98" s="22" t="s">
+      <c r="B98" s="23" t="s">
         <v>483</v>
       </c>
       <c r="C98" s="5" t="s">
@@ -3873,7 +3935,7 @@
       <c r="A99">
         <v>98</v>
       </c>
-      <c r="B99" s="22"/>
+      <c r="B99" s="23"/>
       <c r="C99" t="s">
         <v>96</v>
       </c>
@@ -3882,7 +3944,7 @@
       <c r="A100">
         <v>99</v>
       </c>
-      <c r="B100" s="24" t="s">
+      <c r="B100" s="25" t="s">
         <v>484</v>
       </c>
       <c r="C100" t="s">
@@ -3893,7 +3955,7 @@
       <c r="A101">
         <v>100</v>
       </c>
-      <c r="B101" s="24"/>
+      <c r="B101" s="25"/>
       <c r="C101" t="s">
         <v>98</v>
       </c>
@@ -3902,7 +3964,7 @@
       <c r="A102">
         <v>101</v>
       </c>
-      <c r="B102" s="24"/>
+      <c r="B102" s="25"/>
       <c r="C102" t="s">
         <v>99</v>
       </c>
@@ -6831,7 +6893,7 @@
       <c r="A468">
         <v>467</v>
       </c>
-      <c r="B468" s="20" t="s">
+      <c r="B468" s="21" t="s">
         <v>485</v>
       </c>
       <c r="C468" s="2" t="s">
@@ -6845,7 +6907,7 @@
       <c r="A469">
         <v>468</v>
       </c>
-      <c r="B469" s="20"/>
+      <c r="B469" s="21"/>
       <c r="C469" t="s">
         <v>463</v>
       </c>
@@ -6944,7 +7006,7 @@
       <c r="A482">
         <v>481</v>
       </c>
-      <c r="B482" s="20" t="s">
+      <c r="B482" s="21" t="s">
         <v>485</v>
       </c>
     </row>
@@ -6952,7 +7014,7 @@
       <c r="A483">
         <v>482</v>
       </c>
-      <c r="B483" s="20"/>
+      <c r="B483" s="21"/>
       <c r="C483" t="s">
         <v>487</v>
       </c>
@@ -7767,12 +7829,43 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T9" sqref="T9:W9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="B2" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="B3" t="s">
+        <v>494</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:D614"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C624" sqref="C624"/>
     </sheetView>
@@ -8049,7 +8142,7 @@
       <c r="A34">
         <v>61</v>
       </c>
-      <c r="B34" s="27" t="s">
+      <c r="B34" s="28" t="s">
         <v>479</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -8060,7 +8153,7 @@
       <c r="A35">
         <v>62</v>
       </c>
-      <c r="B35" s="28"/>
+      <c r="B35" s="29"/>
       <c r="C35" t="s">
         <v>81</v>
       </c>
@@ -8082,7 +8175,7 @@
       <c r="A38">
         <v>65</v>
       </c>
-      <c r="B38" s="29" t="s">
+      <c r="B38" s="30" t="s">
         <v>480</v>
       </c>
       <c r="C38" s="2" t="s">
@@ -8093,7 +8186,7 @@
       <c r="A39">
         <v>66</v>
       </c>
-      <c r="B39" s="30"/>
+      <c r="B39" s="31"/>
     </row>
     <row r="40" spans="1:3" hidden="1">
       <c r="A40">
@@ -8194,7 +8287,7 @@
       <c r="A53">
         <v>80</v>
       </c>
-      <c r="B53" s="29" t="s">
+      <c r="B53" s="30" t="s">
         <v>481</v>
       </c>
       <c r="C53" s="2" t="s">
@@ -8205,13 +8298,13 @@
       <c r="A54">
         <v>81</v>
       </c>
-      <c r="B54" s="30"/>
+      <c r="B54" s="31"/>
     </row>
     <row r="55" spans="1:3" hidden="1">
       <c r="A55">
         <v>82</v>
       </c>
-      <c r="B55" s="23" t="s">
+      <c r="B55" s="24" t="s">
         <v>482</v>
       </c>
       <c r="C55" s="1" t="s">
@@ -8222,7 +8315,7 @@
       <c r="A56">
         <v>83</v>
       </c>
-      <c r="B56" s="23"/>
+      <c r="B56" s="24"/>
       <c r="C56" s="2" t="s">
         <v>84</v>
       </c>
@@ -8231,7 +8324,7 @@
       <c r="A57">
         <v>84</v>
       </c>
-      <c r="B57" s="23"/>
+      <c r="B57" s="24"/>
       <c r="C57" t="s">
         <v>85</v>
       </c>
@@ -8240,7 +8333,7 @@
       <c r="A58">
         <v>85</v>
       </c>
-      <c r="B58" s="23"/>
+      <c r="B58" s="24"/>
       <c r="C58" t="s">
         <v>86</v>
       </c>
@@ -8249,7 +8342,7 @@
       <c r="A59">
         <v>86</v>
       </c>
-      <c r="B59" s="23"/>
+      <c r="B59" s="24"/>
     </row>
     <row r="60" spans="1:3" hidden="1">
       <c r="A60">
@@ -8329,7 +8422,7 @@
       <c r="A70">
         <v>97</v>
       </c>
-      <c r="B70" s="29" t="s">
+      <c r="B70" s="30" t="s">
         <v>483</v>
       </c>
       <c r="C70" s="5" t="s">
@@ -8343,7 +8436,7 @@
       <c r="A71">
         <v>98</v>
       </c>
-      <c r="B71" s="30"/>
+      <c r="B71" s="31"/>
       <c r="C71" t="s">
         <v>96</v>
       </c>
@@ -8352,7 +8445,7 @@
       <c r="A72">
         <v>99</v>
       </c>
-      <c r="B72" s="24" t="s">
+      <c r="B72" s="25" t="s">
         <v>484</v>
       </c>
       <c r="C72" t="s">
@@ -8363,7 +8456,7 @@
       <c r="A73">
         <v>100</v>
       </c>
-      <c r="B73" s="24"/>
+      <c r="B73" s="25"/>
       <c r="C73" t="s">
         <v>98</v>
       </c>
@@ -8372,7 +8465,7 @@
       <c r="A74">
         <v>101</v>
       </c>
-      <c r="B74" s="24"/>
+      <c r="B74" s="25"/>
       <c r="C74" t="s">
         <v>99</v>
       </c>
@@ -11301,7 +11394,7 @@
       <c r="A440">
         <v>467</v>
       </c>
-      <c r="B440" s="25" t="s">
+      <c r="B440" s="26" t="s">
         <v>485</v>
       </c>
       <c r="C440" s="2" t="s">
@@ -11312,7 +11405,7 @@
       <c r="A441">
         <v>468</v>
       </c>
-      <c r="B441" s="26"/>
+      <c r="B441" s="27"/>
       <c r="C441" t="s">
         <v>463</v>
       </c>
@@ -12213,6 +12306,165 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="72.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>686</v>
+      </c>
+      <c r="C2" s="9"/>
+    </row>
+    <row r="3" spans="1:4" ht="15" customHeight="1">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="42"/>
+      <c r="C3" s="1" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="42"/>
+      <c r="C4" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="42"/>
+      <c r="C5" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="42"/>
+      <c r="C6" t="s">
+        <v>674</v>
+      </c>
+      <c r="D6" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="42"/>
+      <c r="C7" t="s">
+        <v>676</v>
+      </c>
+      <c r="D7" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="42"/>
+      <c r="C8" t="s">
+        <v>678</v>
+      </c>
+      <c r="D8" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="42"/>
+      <c r="C9" t="s">
+        <v>680</v>
+      </c>
+      <c r="D9" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="42"/>
+      <c r="C10" t="s">
+        <v>682</v>
+      </c>
+      <c r="D10" s="41" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="42"/>
+      <c r="C11" t="s">
+        <v>684</v>
+      </c>
+      <c r="D11" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="42"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="42"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C19"/>
+  <mergeCells count="2">
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="B9:B13"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D517"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -12242,7 +12494,7 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="32" t="s">
         <v>573</v>
       </c>
       <c r="C2" s="11" t="s">
@@ -12254,7 +12506,7 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="32"/>
+      <c r="B3" s="33"/>
       <c r="C3" s="12" t="s">
         <v>521</v>
       </c>
@@ -12264,7 +12516,7 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="33"/>
+      <c r="B4" s="34"/>
       <c r="C4" s="12"/>
       <c r="D4" s="10"/>
     </row>
@@ -12272,7 +12524,7 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="32" t="s">
         <v>574</v>
       </c>
       <c r="C5" s="11" t="s">
@@ -12284,7 +12536,7 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="32"/>
+      <c r="B6" s="33"/>
       <c r="C6" s="12" t="s">
         <v>80</v>
       </c>
@@ -12294,7 +12546,7 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="32"/>
+      <c r="B7" s="33"/>
       <c r="C7" s="12" t="s">
         <v>523</v>
       </c>
@@ -12304,7 +12556,7 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="33"/>
+      <c r="B8" s="34"/>
       <c r="C8" s="12"/>
       <c r="D8" s="10"/>
     </row>
@@ -12312,7 +12564,7 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="32" t="s">
         <v>575</v>
       </c>
       <c r="C9" s="12" t="s">
@@ -12324,7 +12576,7 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="32"/>
+      <c r="B10" s="33"/>
       <c r="C10" s="12" t="s">
         <v>41</v>
       </c>
@@ -12334,7 +12586,7 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="32"/>
+      <c r="B11" s="33"/>
       <c r="C11" s="12" t="s">
         <v>525</v>
       </c>
@@ -12344,7 +12596,7 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="33"/>
+      <c r="B12" s="34"/>
       <c r="C12" s="11"/>
       <c r="D12" s="10"/>
     </row>
@@ -12352,7 +12604,7 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="32" t="s">
         <v>579</v>
       </c>
       <c r="C13" s="12" t="s">
@@ -12364,7 +12616,7 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="32"/>
+      <c r="B14" s="33"/>
       <c r="C14" s="12" t="s">
         <v>90</v>
       </c>
@@ -12374,7 +12626,7 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="33"/>
+      <c r="B15" s="34"/>
       <c r="C15" s="12"/>
       <c r="D15" s="10"/>
     </row>
@@ -12460,7 +12712,7 @@
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="33" t="s">
         <v>577</v>
       </c>
       <c r="C24" s="12" t="s">
@@ -12472,7 +12724,7 @@
       <c r="A25">
         <v>52</v>
       </c>
-      <c r="B25" s="32"/>
+      <c r="B25" s="33"/>
       <c r="C25" s="12" t="s">
         <v>529</v>
       </c>
@@ -12562,7 +12814,7 @@
       <c r="A34">
         <v>61</v>
       </c>
-      <c r="B34" s="34"/>
+      <c r="B34" s="35"/>
       <c r="C34" s="12"/>
       <c r="D34" s="10"/>
     </row>
@@ -12570,7 +12822,7 @@
       <c r="A35">
         <v>62</v>
       </c>
-      <c r="B35" s="35"/>
+      <c r="B35" s="36"/>
       <c r="C35" s="12"/>
       <c r="D35" s="10"/>
     </row>
@@ -12798,7 +13050,7 @@
       <c r="A58">
         <v>85</v>
       </c>
-      <c r="B58" s="31" t="s">
+      <c r="B58" s="32" t="s">
         <v>580</v>
       </c>
       <c r="C58" s="12" t="s">
@@ -12810,7 +13062,7 @@
       <c r="A59">
         <v>86</v>
       </c>
-      <c r="B59" s="32"/>
+      <c r="B59" s="33"/>
       <c r="C59" s="12" t="s">
         <v>516</v>
       </c>
@@ -12820,7 +13072,7 @@
       <c r="A60">
         <v>87</v>
       </c>
-      <c r="B60" s="33"/>
+      <c r="B60" s="34"/>
       <c r="C60" s="11"/>
       <c r="D60" s="10"/>
     </row>
@@ -12828,7 +13080,7 @@
       <c r="A61">
         <v>88</v>
       </c>
-      <c r="B61" s="31" t="s">
+      <c r="B61" s="32" t="s">
         <v>576</v>
       </c>
       <c r="C61" s="12" t="s">
@@ -12840,7 +13092,7 @@
       <c r="A62">
         <v>89</v>
       </c>
-      <c r="B62" s="32"/>
+      <c r="B62" s="33"/>
       <c r="C62" s="12" t="s">
         <v>41</v>
       </c>
@@ -12850,7 +13102,7 @@
       <c r="A63">
         <v>90</v>
       </c>
-      <c r="B63" s="32"/>
+      <c r="B63" s="33"/>
       <c r="C63" s="12" t="s">
         <v>525</v>
       </c>
@@ -12860,7 +13112,7 @@
       <c r="A64">
         <v>91</v>
       </c>
-      <c r="B64" s="33"/>
+      <c r="B64" s="34"/>
       <c r="C64" s="12"/>
       <c r="D64" s="10"/>
     </row>
@@ -12868,7 +13120,7 @@
       <c r="A65">
         <v>92</v>
       </c>
-      <c r="B65" s="31" t="s">
+      <c r="B65" s="32" t="s">
         <v>480</v>
       </c>
       <c r="C65" s="11" t="s">
@@ -12880,7 +13132,7 @@
       <c r="A66">
         <v>93</v>
       </c>
-      <c r="B66" s="32"/>
+      <c r="B66" s="33"/>
       <c r="C66" s="12" t="s">
         <v>557</v>
       </c>
@@ -12890,7 +13142,7 @@
       <c r="A67">
         <v>94</v>
       </c>
-      <c r="B67" s="33"/>
+      <c r="B67" s="34"/>
       <c r="C67" s="12"/>
       <c r="D67" s="10"/>
     </row>
@@ -12898,7 +13150,7 @@
       <c r="A68">
         <v>95</v>
       </c>
-      <c r="B68" s="31" t="s">
+      <c r="B68" s="32" t="s">
         <v>581</v>
       </c>
       <c r="C68" s="12" t="s">
@@ -12910,7 +13162,7 @@
       <c r="A69">
         <v>96</v>
       </c>
-      <c r="B69" s="32"/>
+      <c r="B69" s="33"/>
       <c r="C69" s="11" t="s">
         <v>84</v>
       </c>
@@ -12920,7 +13172,7 @@
       <c r="A70">
         <v>97</v>
       </c>
-      <c r="B70" s="32"/>
+      <c r="B70" s="33"/>
       <c r="C70" s="12" t="s">
         <v>558</v>
       </c>
@@ -12930,7 +13182,7 @@
       <c r="A71">
         <v>98</v>
       </c>
-      <c r="B71" s="32"/>
+      <c r="B71" s="33"/>
       <c r="C71" s="12" t="s">
         <v>559</v>
       </c>
@@ -12940,7 +13192,7 @@
       <c r="A72">
         <v>99</v>
       </c>
-      <c r="B72" s="33"/>
+      <c r="B72" s="34"/>
       <c r="C72" s="12"/>
       <c r="D72" s="10"/>
     </row>
@@ -12948,7 +13200,7 @@
       <c r="A73">
         <v>100</v>
       </c>
-      <c r="B73" s="31" t="s">
+      <c r="B73" s="32" t="s">
         <v>584</v>
       </c>
       <c r="C73" s="12" t="s">
@@ -12960,7 +13212,7 @@
       <c r="A74">
         <v>101</v>
       </c>
-      <c r="B74" s="32"/>
+      <c r="B74" s="33"/>
       <c r="C74" s="12" t="s">
         <v>560</v>
       </c>
@@ -12970,7 +13222,7 @@
       <c r="A75">
         <v>102</v>
       </c>
-      <c r="B75" s="32"/>
+      <c r="B75" s="33"/>
       <c r="C75" s="12" t="s">
         <v>561</v>
       </c>
@@ -12980,7 +13232,7 @@
       <c r="A76">
         <v>103</v>
       </c>
-      <c r="B76" s="32"/>
+      <c r="B76" s="33"/>
       <c r="C76" s="12" t="s">
         <v>562</v>
       </c>
@@ -12990,7 +13242,7 @@
       <c r="A77">
         <v>104</v>
       </c>
-      <c r="B77" s="33"/>
+      <c r="B77" s="34"/>
       <c r="C77" s="12"/>
       <c r="D77" s="10"/>
     </row>
@@ -12998,7 +13250,7 @@
       <c r="A78">
         <v>105</v>
       </c>
-      <c r="B78" s="31" t="s">
+      <c r="B78" s="32" t="s">
         <v>582</v>
       </c>
       <c r="C78" s="12" t="s">
@@ -13010,7 +13262,7 @@
       <c r="A79">
         <v>106</v>
       </c>
-      <c r="B79" s="32"/>
+      <c r="B79" s="33"/>
       <c r="C79" s="12" t="s">
         <v>563</v>
       </c>
@@ -13020,7 +13272,7 @@
       <c r="A80">
         <v>107</v>
       </c>
-      <c r="B80" s="33"/>
+      <c r="B80" s="34"/>
       <c r="C80" s="12"/>
       <c r="D80" s="10"/>
     </row>
@@ -13028,7 +13280,7 @@
       <c r="A81">
         <v>108</v>
       </c>
-      <c r="B81" s="31" t="s">
+      <c r="B81" s="32" t="s">
         <v>576</v>
       </c>
       <c r="C81" s="12" t="s">
@@ -13040,7 +13292,7 @@
       <c r="A82">
         <v>109</v>
       </c>
-      <c r="B82" s="32"/>
+      <c r="B82" s="33"/>
       <c r="C82" s="12" t="s">
         <v>560</v>
       </c>
@@ -13050,7 +13302,7 @@
       <c r="A83">
         <v>110</v>
       </c>
-      <c r="B83" s="32"/>
+      <c r="B83" s="33"/>
       <c r="C83" s="12" t="s">
         <v>564</v>
       </c>
@@ -13060,7 +13312,7 @@
       <c r="A84">
         <v>111</v>
       </c>
-      <c r="B84" s="32"/>
+      <c r="B84" s="33"/>
       <c r="C84" s="12" t="s">
         <v>565</v>
       </c>
@@ -13070,7 +13322,7 @@
       <c r="A85">
         <v>112</v>
       </c>
-      <c r="B85" s="33"/>
+      <c r="B85" s="34"/>
       <c r="C85" s="12"/>
       <c r="D85" s="10"/>
     </row>
@@ -13078,7 +13330,7 @@
       <c r="A86">
         <v>113</v>
       </c>
-      <c r="B86" s="31" t="s">
+      <c r="B86" s="32" t="s">
         <v>583</v>
       </c>
       <c r="C86" s="12" t="s">
@@ -13090,7 +13342,7 @@
       <c r="A87">
         <v>114</v>
       </c>
-      <c r="B87" s="32"/>
+      <c r="B87" s="33"/>
       <c r="C87" s="12" t="s">
         <v>84</v>
       </c>
@@ -13100,7 +13352,7 @@
       <c r="A88">
         <v>115</v>
       </c>
-      <c r="B88" s="32"/>
+      <c r="B88" s="33"/>
       <c r="C88" s="12" t="s">
         <v>566</v>
       </c>
@@ -13110,7 +13362,7 @@
       <c r="A89">
         <v>116</v>
       </c>
-      <c r="B89" s="32"/>
+      <c r="B89" s="33"/>
       <c r="C89" s="12" t="s">
         <v>567</v>
       </c>
@@ -13120,7 +13372,7 @@
       <c r="A90">
         <v>117</v>
       </c>
-      <c r="B90" s="32"/>
+      <c r="B90" s="33"/>
       <c r="C90" s="12" t="s">
         <v>568</v>
       </c>
@@ -13130,7 +13382,7 @@
       <c r="A91">
         <v>118</v>
       </c>
-      <c r="B91" s="32"/>
+      <c r="B91" s="33"/>
       <c r="C91" s="12" t="s">
         <v>569</v>
       </c>
@@ -13140,7 +13392,7 @@
       <c r="A92">
         <v>119</v>
       </c>
-      <c r="B92" s="32"/>
+      <c r="B92" s="33"/>
       <c r="C92" s="12" t="s">
         <v>570</v>
       </c>
@@ -13150,7 +13402,7 @@
       <c r="A93">
         <v>120</v>
       </c>
-      <c r="B93" s="32"/>
+      <c r="B93" s="33"/>
       <c r="C93" s="12" t="s">
         <v>571</v>
       </c>
@@ -13160,7 +13412,7 @@
       <c r="A94">
         <v>121</v>
       </c>
-      <c r="B94" s="32"/>
+      <c r="B94" s="33"/>
       <c r="C94" s="12" t="s">
         <v>572</v>
       </c>
@@ -13170,7 +13422,7 @@
       <c r="A95">
         <v>122</v>
       </c>
-      <c r="B95" s="32"/>
+      <c r="B95" s="33"/>
       <c r="C95" s="12" t="s">
         <v>471</v>
       </c>
@@ -13180,7 +13432,7 @@
       <c r="A96">
         <v>123</v>
       </c>
-      <c r="B96" s="33"/>
+      <c r="B96" s="34"/>
       <c r="C96" s="12"/>
       <c r="D96" s="10"/>
     </row>
@@ -14879,7 +15131,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D425"/>
   <sheetViews>
@@ -14910,7 +15162,7 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="32" t="s">
         <v>587</v>
       </c>
       <c r="C2" s="11" t="s">
@@ -14922,7 +15174,7 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="32"/>
+      <c r="B3" s="33"/>
       <c r="C3" s="12" t="s">
         <v>586</v>
       </c>
@@ -14932,7 +15184,7 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="33"/>
+      <c r="B4" s="34"/>
       <c r="C4" s="12"/>
       <c r="D4" s="10"/>
     </row>
@@ -16618,7 +16870,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C638"/>
   <sheetViews>
@@ -16657,7 +16909,7 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="21" t="s">
         <v>491</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -16668,7 +16920,7 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="20"/>
+      <c r="B4" s="21"/>
       <c r="C4" t="s">
         <v>489</v>
       </c>
@@ -19857,7 +20109,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C638"/>
   <sheetViews>
@@ -19888,7 +20140,7 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="37" t="s">
         <v>513</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -19899,7 +20151,7 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="36"/>
+      <c r="B3" s="37"/>
       <c r="C3" s="7" t="s">
         <v>496</v>
       </c>
@@ -20016,7 +20268,7 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="22" t="s">
         <v>514</v>
       </c>
       <c r="C19" s="6" t="s">
@@ -20027,7 +20279,7 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="36"/>
+      <c r="B20" s="37"/>
       <c r="C20" s="7" t="s">
         <v>508</v>
       </c>
@@ -20041,7 +20293,7 @@
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="36" t="s">
+      <c r="B22" s="37" t="s">
         <v>513</v>
       </c>
       <c r="C22" s="6" t="s">
@@ -20052,7 +20304,7 @@
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="36"/>
+      <c r="B23" s="37"/>
       <c r="C23" s="7" t="s">
         <v>496</v>
       </c>
@@ -20098,7 +20350,7 @@
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="21" t="s">
         <v>515</v>
       </c>
       <c r="C29" t="s">
@@ -20109,7 +20361,7 @@
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="20"/>
+      <c r="B30" s="21"/>
       <c r="C30" t="s">
         <v>511</v>
       </c>
@@ -20118,7 +20370,7 @@
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="20"/>
+      <c r="B31" s="21"/>
       <c r="C31" t="s">
         <v>512</v>
       </c>
@@ -23209,12 +23461,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D638"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
@@ -23249,7 +23501,7 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="38" t="s">
         <v>597</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -23260,7 +23512,7 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="38"/>
+      <c r="B4" s="39"/>
       <c r="C4" s="2" t="s">
         <v>591</v>
       </c>
@@ -23269,7 +23521,7 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="38"/>
+      <c r="B5" s="39"/>
       <c r="C5" t="s">
         <v>596</v>
       </c>
@@ -23278,25 +23530,25 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="38"/>
+      <c r="B6" s="39"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="38"/>
+      <c r="B7" s="39"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="39"/>
+      <c r="B8" s="40"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="38" t="s">
         <v>598</v>
       </c>
       <c r="C9" t="s">
@@ -23307,7 +23559,7 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="38"/>
+      <c r="B10" s="39"/>
       <c r="C10" t="s">
         <v>592</v>
       </c>
@@ -23316,7 +23568,7 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="38"/>
+      <c r="B11" s="39"/>
       <c r="C11" t="s">
         <v>593</v>
       </c>
@@ -23325,7 +23577,7 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="38"/>
+      <c r="B12" s="39"/>
       <c r="C12" t="s">
         <v>594</v>
       </c>
@@ -23334,7 +23586,7 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="39"/>
+      <c r="B13" s="40"/>
       <c r="C13" t="s">
         <v>595</v>
       </c>
@@ -23348,7 +23600,7 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="38" t="s">
         <v>600</v>
       </c>
       <c r="C15" t="s">
@@ -23359,7 +23611,7 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="38"/>
+      <c r="B16" s="39"/>
       <c r="C16" t="s">
         <v>599</v>
       </c>
@@ -23368,7 +23620,7 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="39"/>
+      <c r="B17" s="40"/>
       <c r="C17" t="s">
         <v>593</v>
       </c>
@@ -23382,7 +23634,7 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="37" t="s">
+      <c r="B19" s="38" t="s">
         <v>601</v>
       </c>
       <c r="C19" t="s">
@@ -23393,11 +23645,11 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="38"/>
+      <c r="B20" s="39"/>
       <c r="C20" t="s">
         <v>602</v>
       </c>
-      <c r="D20" s="40" t="s">
+      <c r="D20" s="20" t="s">
         <v>673</v>
       </c>
     </row>
@@ -23405,7 +23657,7 @@
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="38"/>
+      <c r="B21" s="39"/>
       <c r="C21" t="s">
         <v>603</v>
       </c>
@@ -23414,7 +23666,7 @@
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="38"/>
+      <c r="B22" s="39"/>
       <c r="C22" t="s">
         <v>604</v>
       </c>
@@ -23423,7 +23675,7 @@
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="38"/>
+      <c r="B23" s="39"/>
       <c r="C23" t="s">
         <v>605</v>
       </c>
@@ -23432,7 +23684,7 @@
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="38"/>
+      <c r="B24" s="39"/>
       <c r="C24" t="s">
         <v>606</v>
       </c>
@@ -23441,7 +23693,7 @@
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="38"/>
+      <c r="B25" s="39"/>
       <c r="C25" t="s">
         <v>607</v>
       </c>
@@ -23450,7 +23702,7 @@
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="38"/>
+      <c r="B26" s="39"/>
       <c r="C26" t="s">
         <v>608</v>
       </c>
@@ -23459,7 +23711,7 @@
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="38"/>
+      <c r="B27" s="39"/>
       <c r="C27" t="s">
         <v>609</v>
       </c>
@@ -23468,7 +23720,7 @@
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="39"/>
+      <c r="B28" s="40"/>
       <c r="C28" t="s">
         <v>610</v>
       </c>
@@ -23482,7 +23734,7 @@
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="37" t="s">
+      <c r="B30" s="38" t="s">
         <v>620</v>
       </c>
       <c r="C30" t="s">
@@ -23493,7 +23745,7 @@
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="38"/>
+      <c r="B31" s="39"/>
       <c r="C31" t="s">
         <v>611</v>
       </c>
@@ -23502,7 +23754,7 @@
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="38"/>
+      <c r="B32" s="39"/>
       <c r="C32" t="s">
         <v>612</v>
       </c>
@@ -23511,7 +23763,7 @@
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="38"/>
+      <c r="B33" s="39"/>
       <c r="C33" t="s">
         <v>613</v>
       </c>
@@ -23520,7 +23772,7 @@
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="38"/>
+      <c r="B34" s="39"/>
       <c r="C34" t="s">
         <v>614</v>
       </c>
@@ -23529,7 +23781,7 @@
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="39"/>
+      <c r="B35" s="40"/>
       <c r="C35" t="s">
         <v>615</v>
       </c>
@@ -23543,7 +23795,7 @@
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="37" t="s">
+      <c r="B37" s="38" t="s">
         <v>616</v>
       </c>
       <c r="C37" t="s">
@@ -23554,7 +23806,7 @@
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" s="38"/>
+      <c r="B38" s="39"/>
       <c r="C38" t="s">
         <v>617</v>
       </c>
@@ -23563,7 +23815,7 @@
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="38"/>
+      <c r="B39" s="39"/>
       <c r="C39" t="s">
         <v>618</v>
       </c>
@@ -23572,7 +23824,7 @@
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" s="39"/>
+      <c r="B40" s="40"/>
       <c r="C40" t="s">
         <v>619</v>
       </c>
@@ -23586,7 +23838,7 @@
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" s="37" t="s">
+      <c r="B42" s="38" t="s">
         <v>623</v>
       </c>
       <c r="C42" t="s">
@@ -23597,7 +23849,7 @@
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" s="38"/>
+      <c r="B43" s="39"/>
       <c r="C43" t="s">
         <v>621</v>
       </c>
@@ -23606,7 +23858,7 @@
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" s="38"/>
+      <c r="B44" s="39"/>
       <c r="C44" t="s">
         <v>622</v>
       </c>
@@ -23615,7 +23867,7 @@
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" s="39"/>
+      <c r="B45" s="40"/>
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
@@ -23626,7 +23878,7 @@
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" s="37" t="s">
+      <c r="B47" s="38" t="s">
         <v>643</v>
       </c>
       <c r="C47" t="s">
@@ -23637,7 +23889,7 @@
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" s="38"/>
+      <c r="B48" s="39"/>
       <c r="C48" t="s">
         <v>624</v>
       </c>
@@ -23646,7 +23898,7 @@
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" s="38"/>
+      <c r="B49" s="39"/>
       <c r="C49" t="s">
         <v>625</v>
       </c>
@@ -23655,7 +23907,7 @@
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" s="38"/>
+      <c r="B50" s="39"/>
       <c r="C50" t="s">
         <v>626</v>
       </c>
@@ -23664,7 +23916,7 @@
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" s="38"/>
+      <c r="B51" s="39"/>
       <c r="C51" t="s">
         <v>627</v>
       </c>
@@ -27103,7 +27355,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A44"/>
   <sheetViews>
@@ -27317,35 +27569,4 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T9" sqref="T9:W9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="B2" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="B3" t="s">
-        <v>494</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>